--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A947635-10EE-44D5-97D1-63E3978D81DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD620FC0-FF4F-4C5B-914E-7BA15ED11B58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10260" xr2:uid="{2852C8F5-4A95-4668-A218-67176B78F0E5}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -85,7 +85,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -405,7 +405,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
